--- a/output.xlsx
+++ b/output.xlsx
@@ -27952,22 +27952,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>1.694063926940639</v>
+        <v>1.814611872146119</v>
       </c>
       <c r="D2" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E2" t="n">
-        <v>7.244774180766248</v>
+        <v>7.018692793857933</v>
       </c>
       <c r="F2" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06071401756454</v>
+        <v>1.149769366770941</v>
       </c>
       <c r="H2" t="n">
         <v>0.1947368421052632</v>
@@ -27985,58 +27985,58 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006942473990117714</v>
+        <v>0.09886093761173002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.2722321340126949</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3872469060422849</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.2298000155875847</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.01186010674570551</v>
       </c>
       <c r="U2" t="n">
-        <v>0.717848748942015</v>
+        <v>0.655909703955845</v>
       </c>
       <c r="V2" t="n">
-        <v>0.809579436350922</v>
+        <v>0.9997581841943098</v>
       </c>
       <c r="W2" t="n">
-        <v>3.968336805303631</v>
+        <v>3.959915072930327</v>
       </c>
       <c r="X2" t="n">
-        <v>1.090193253937462</v>
+        <v>1.184236844326199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.527428185292937</v>
+        <v>1.655667888150155</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.692369863013699</v>
+        <v>1.812797260273973</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.69575799086758</v>
+        <v>1.816426484018265</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03902728175409959</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.2268264840182649</v>
       </c>
       <c r="AE2" t="n">
         <v>0.06</v>
@@ -28063,40 +28063,40 @@
         <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>0.04315602752365866</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7333062585703458</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.270157200347922</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.793791780733581</v>
+        <v>6.945039569676987</v>
       </c>
       <c r="AT2" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.460347505304705</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.4862906728955787</v>
+        <v>0.7740070128104767</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1678604487853137</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4292624708694484</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.623431235661163</v>
+        <v>1.490030926415417</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
@@ -28105,43 +28105,43 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>0.08707163358101322</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.076555492377935</v>
+        <v>1.825160142715042</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4368977429847396</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>9999887.658278573</v>
+        <v>9999866.521449352</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.249918721461188</v>
+        <v>1.313641095890411</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9999999000000001</v>
+        <v>0.9999997</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9999994.4991716</v>
+        <v>9999993.057166645</v>
       </c>
       <c r="BK2" t="n">
-        <v>9999967.901266331</v>
+        <v>9999965.262225235</v>
       </c>
       <c r="BL2" t="n">
         <v>0.0246102226697569</v>
       </c>
       <c r="BM2" t="n">
-        <v>9999969.119118229</v>
+        <v>9999966.709195912</v>
       </c>
       <c r="BN2" t="n">
         <v>1.02627893093248</v>
@@ -28185,22 +28185,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D3" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E3" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F3" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G3" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845132</v>
       </c>
       <c r="H3" t="n">
         <v>0.1947368421052632</v>
@@ -28218,58 +28218,58 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.1670819590348474</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590471</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188532</v>
       </c>
       <c r="V3" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781377</v>
       </c>
       <c r="W3" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X3" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989975</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE3" t="n">
         <v>0.06</v>
@@ -28290,91 +28290,91 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625579</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937954</v>
       </c>
       <c r="AS3" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT3" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405262</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.1379961600095</v>
+        <v>0.8045570841917233</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337419</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855329</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782126</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.6327049268438354</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>0.1741967600620635</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.158038829606558</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694125</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>9999729.74573523</v>
+        <v>9999727.969017874</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.02203287671233</v>
+        <v>0.6836671301734347</v>
       </c>
       <c r="BI3" t="n">
-        <v>4.000000000115023e-07</v>
+        <v>0.9999997</v>
       </c>
       <c r="BJ3" t="n">
-        <v>9999987.025522903</v>
+        <v>9999985.965600912</v>
       </c>
       <c r="BK3" t="n">
-        <v>9999930.100477871</v>
+        <v>9999929.887464171</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.03367916426041306</v>
+        <v>0.02632083573958693</v>
       </c>
       <c r="BM3" t="n">
-        <v>9999933.369815405</v>
+        <v>9999933.02891814</v>
       </c>
       <c r="BN3" t="n">
         <v>1.02627893093248</v>
@@ -28418,22 +28418,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D4" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E4" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F4" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G4" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845132</v>
       </c>
       <c r="H4" t="n">
         <v>0.1947368421052632</v>
@@ -28451,58 +28451,58 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.1670819590348474</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590471</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761338</v>
       </c>
       <c r="U4" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188532</v>
       </c>
       <c r="V4" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781377</v>
       </c>
       <c r="W4" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X4" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989975</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE4" t="n">
         <v>0.06</v>
@@ -28523,91 +28523,91 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
         <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625579</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937954</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT4" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405262</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.330689910655332</v>
+        <v>0.8045570841917233</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337419</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855329</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782126</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>0.824961872245255</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>0.1130024112188956</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.096705448009867</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694125</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>9999571.833191887</v>
+        <v>9999570.049699821</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.249918721461187</v>
+        <v>0.4557797408183448</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9999999000000001</v>
+        <v>4.000000000115023e-07</v>
       </c>
       <c r="BJ4" t="n">
-        <v>9999979.551874205</v>
+        <v>9999977.649402408</v>
       </c>
       <c r="BK4" t="n">
-        <v>9999892.29968941</v>
+        <v>9999892.086675711</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.04274810585106922</v>
+        <v>0.01725189414893075</v>
       </c>
       <c r="BM4" t="n">
-        <v>9999897.620512582</v>
+        <v>9999897.206535105</v>
       </c>
       <c r="BN4" t="n">
         <v>1.02627893093248</v>
@@ -28651,22 +28651,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" t="n">
-        <v>1.694063926940639</v>
+        <v>1.734246575342466</v>
       </c>
       <c r="D5" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E5" t="n">
-        <v>7.244774180766248</v>
+        <v>7.176446144309477</v>
       </c>
       <c r="F5" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G5" t="n">
-        <v>1.06071401756454</v>
+        <v>1.087819930611597</v>
       </c>
       <c r="H5" t="n">
         <v>0.1947368421052632</v>
@@ -28684,58 +28684,58 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006942473990117714</v>
+        <v>0.02416652246945281</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4241486187949978</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.2206844582086207</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3024560907980742</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.02854440972885453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6480648960673789</v>
       </c>
       <c r="V5" t="n">
-        <v>0.809579436350922</v>
+        <v>0.9183958040133211</v>
       </c>
       <c r="W5" t="n">
-        <v>3.968336805303631</v>
+        <v>3.975924116145625</v>
       </c>
       <c r="X5" t="n">
-        <v>1.090193253937462</v>
+        <v>1.115918896265573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.527428185292937</v>
+        <v>1.5664607000807</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.692369863013699</v>
+        <v>1.732512328767123</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.69575799086758</v>
+        <v>1.735980821917808</v>
       </c>
       <c r="AB5" t="n">
         <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.0381693801783165</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.2167808219178082</v>
       </c>
       <c r="AE5" t="n">
         <v>0.06</v>
@@ -28762,40 +28762,40 @@
         <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.2276555926020851</v>
+        <v>-0.08278513674986709</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.290612853664234</v>
+        <v>1.005572219489477</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.389731822616927</v>
       </c>
       <c r="AS5" t="n">
-        <v>8.793791780733581</v>
+        <v>7.078195343768706</v>
       </c>
       <c r="AT5" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.733137213003371</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.6187871094735538</v>
+        <v>0.8431023912601813</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1799645925383406</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4316269659241693</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.623431235661163</v>
+        <v>1.546247508526291</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
@@ -28804,43 +28804,43 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>0.5220971668312911</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.499254355891382</v>
+        <v>1.956763810303626</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4977244539108836</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>9999413.920648543</v>
+        <v>9999406.96295163</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.022032876712331</v>
+        <v>1.045398637022749</v>
       </c>
       <c r="BI5" t="n">
         <v>4.000000000115023e-07</v>
       </c>
       <c r="BJ5" t="n">
-        <v>9999972.078225508</v>
+        <v>9999968.991332317</v>
       </c>
       <c r="BK5" t="n">
-        <v>9999854.49890095</v>
+        <v>9999853.639311906</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.03409725076695701</v>
+        <v>0.03409725076695692</v>
       </c>
       <c r="BM5" t="n">
-        <v>9999861.871209759</v>
+        <v>9999860.799941543</v>
       </c>
       <c r="BN5" t="n">
         <v>1.02627893093248</v>
@@ -28884,22 +28884,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C6" t="n">
-        <v>1.694063926940639</v>
+        <v>1.874885844748859</v>
       </c>
       <c r="D6" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E6" t="n">
-        <v>7.244774180766248</v>
+        <v>6.881917663173528</v>
       </c>
       <c r="F6" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G6" t="n">
-        <v>1.06071401756454</v>
+        <v>1.185658175343583</v>
       </c>
       <c r="H6" t="n">
         <v>0.1947368421052632</v>
@@ -28917,58 +28917,58 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006942473990117714</v>
+        <v>0.1525545927864448</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.1630561665887726</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.506805695521837</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.1775836451029459</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05437483399847826</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6722037994799471</v>
       </c>
       <c r="V6" t="n">
-        <v>0.809579436350922</v>
+        <v>1.035143973014813</v>
       </c>
       <c r="W6" t="n">
-        <v>3.968336805303631</v>
+        <v>3.921473760843692</v>
       </c>
       <c r="X6" t="n">
-        <v>1.090193253937462</v>
+        <v>1.233172677677825</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.527428185292937</v>
+        <v>1.70734777249476</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.692369863013699</v>
+        <v>1.87301095890411</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.69575799086758</v>
+        <v>1.876760730593607</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03980293206313169</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.2343607305936073</v>
       </c>
       <c r="AE6" t="n">
         <v>0.06</v>
@@ -28995,40 +28995,40 @@
         <v>1</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7053250716776897</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-1.500994428246688</v>
+        <v>-0.9987103589296404</v>
       </c>
       <c r="AS6" t="n">
-        <v>8.793791780733581</v>
+        <v>7.766643985333012</v>
       </c>
       <c r="AT6" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.361126583005796</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.3547868790519813</v>
+        <v>0.7012358684102115</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.08478051192703207</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.398984657606504</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.623431235661163</v>
+        <v>1.474510767173812</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
@@ -29037,43 +29037,43 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>0.9507477299662714</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.071453227922353</v>
+        <v>1.742709279411722</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.3979987980281875</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>0.6795217579706514</v>
       </c>
       <c r="BG6" t="n">
-        <v>9999256.0081052</v>
+        <v>9999223.673958791</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.249918721461187</v>
+        <v>1.340240814012625</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.9999999000000001</v>
+        <v>0.9999997</v>
       </c>
       <c r="BJ6" t="n">
-        <v>9999964.6281307</v>
+        <v>9999959.124149363</v>
       </c>
       <c r="BK6" t="n">
-        <v>9999816.69811249</v>
+        <v>9999812.671742629</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.04274810585106922</v>
+        <v>0.04274810585106924</v>
       </c>
       <c r="BM6" t="n">
-        <v>9999826.331436049</v>
+        <v>9999822.25124272</v>
       </c>
       <c r="BN6" t="n">
         <v>1.02627893093248</v>
@@ -29117,22 +29117,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C7" t="n">
-        <v>1.694063926940639</v>
+        <v>1.874885844748859</v>
       </c>
       <c r="D7" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E7" t="n">
-        <v>7.244774180766248</v>
+        <v>6.881917663173528</v>
       </c>
       <c r="F7" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G7" t="n">
-        <v>1.06071401756454</v>
+        <v>1.185658175343584</v>
       </c>
       <c r="H7" t="n">
         <v>0.1947368421052632</v>
@@ -29150,58 +29150,58 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006942473990117714</v>
+        <v>0.1525545927864447</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.1630561665887728</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.506805695521837</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.1775836451029466</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05437483399847826</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6858636853801386</v>
       </c>
       <c r="V7" t="n">
-        <v>0.809579436350922</v>
+        <v>1.021484087114622</v>
       </c>
       <c r="W7" t="n">
-        <v>3.968336805303631</v>
+        <v>3.921473760843692</v>
       </c>
       <c r="X7" t="n">
-        <v>1.090193253937462</v>
+        <v>1.233172677677825</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.527428185292937</v>
+        <v>1.70734777249476</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.692369863013699</v>
+        <v>1.87301095890411</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.69575799086758</v>
+        <v>1.876760730593607</v>
       </c>
       <c r="AB7" t="n">
         <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03980293206313169</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.2343607305936073</v>
       </c>
       <c r="AE7" t="n">
         <v>0.06</v>
@@ -29228,40 +29228,40 @@
         <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.290612853664234</v>
+        <v>0.642510483737173</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-1.500994428246688</v>
+        <v>-0.8628167277336825</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.793791780733581</v>
+        <v>8.215501349363791</v>
       </c>
       <c r="AT7" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.270260841326304</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2605247671920968</v>
+        <v>0.6621743151332288</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.04584287868748682</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.3907601109069182</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.623431235661163</v>
+        <v>1.475356016457671</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
@@ -29270,43 +29270,43 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>0.3769000599786057</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.509795821094461</v>
+        <v>1.699201881762325</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.3717145003124908</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>0.9985682734616597</v>
       </c>
       <c r="BG7" t="n">
-        <v>9999098.095561856</v>
+        <v>9999065.693878282</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.022032876712331</v>
+        <v>1.115647952091243</v>
       </c>
       <c r="BI7" t="n">
         <v>4.000000000115023e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>9999957.178035893</v>
+        <v>9999950.808631774</v>
       </c>
       <c r="BK7" t="n">
-        <v>9999778.897324029</v>
+        <v>9999774.870954169</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.03409725076695701</v>
+        <v>0.03409725076695692</v>
       </c>
       <c r="BM7" t="n">
-        <v>9999790.791662339</v>
+        <v>9999786.428859685</v>
       </c>
       <c r="BN7" t="n">
         <v>1.02627893093248</v>
@@ -29350,22 +29350,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D8" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F8" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G8" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845133</v>
       </c>
       <c r="H8" t="n">
         <v>0.1947368421052632</v>
@@ -29383,58 +29383,58 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1670819590348475</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761332</v>
       </c>
       <c r="U8" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188533</v>
       </c>
       <c r="V8" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781378</v>
       </c>
       <c r="W8" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X8" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB8" t="n">
         <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE8" t="n">
         <v>0.06</v>
@@ -29455,91 +29455,91 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625588</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937955</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT8" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405263</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.8198218121023468</v>
+        <v>0.8045570841917241</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337426</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855332</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782127</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.3152518281901611</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.89651743553265</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.882000608125641</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694134</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>9998940.183018513</v>
+        <v>9998938.250902694</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.249918721461187</v>
+        <v>0.4557797408183446</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9999999000000001</v>
+        <v>4.000000000115023e-07</v>
       </c>
       <c r="BJ8" t="n">
-        <v>9999949.704387195</v>
+        <v>9999944.38156008</v>
       </c>
       <c r="BK8" t="n">
-        <v>9999741.096535569</v>
+        <v>9999740.88352187</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.04274810585106922</v>
+        <v>0.01725189414893075</v>
       </c>
       <c r="BM8" t="n">
-        <v>9999755.042359516</v>
+        <v>9999753.917002965</v>
       </c>
       <c r="BN8" t="n">
         <v>1.02627893093248</v>
@@ -29583,22 +29583,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D9" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E9" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F9" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G9" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845133</v>
       </c>
       <c r="H9" t="n">
         <v>0.1947368421052632</v>
@@ -29616,58 +29616,58 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.1670819590348475</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590472</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761332</v>
       </c>
       <c r="U9" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188533</v>
       </c>
       <c r="V9" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781378</v>
       </c>
       <c r="W9" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X9" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989976</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB9" t="n">
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE9" t="n">
         <v>0.06</v>
@@ -29688,91 +29688,91 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625588</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937955</v>
       </c>
       <c r="AS9" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT9" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405263</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.400504626224285</v>
+        <v>0.8045570841917241</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337426</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855332</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782127</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.8946183292625143</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>0.7484152075384296</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.733561893822633</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694134</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>9998782.27047517</v>
+        <v>9998780.33158464</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.022032876712331</v>
+        <v>0.6770780753060173</v>
       </c>
       <c r="BI9" t="n">
-        <v>4.000000000115023e-07</v>
+        <v>0.9999997</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9999942.230738498</v>
+        <v>9999936.065361576</v>
       </c>
       <c r="BK9" t="n">
-        <v>9999703.295747109</v>
+        <v>9999703.082733409</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.03409725076695701</v>
+        <v>0.02590274923304307</v>
       </c>
       <c r="BM9" t="n">
-        <v>9999719.293056693</v>
+        <v>9999718.09461993</v>
       </c>
       <c r="BN9" t="n">
         <v>1.02627893093248</v>
@@ -29816,22 +29816,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D10" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E10" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F10" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G10" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845133</v>
       </c>
       <c r="H10" t="n">
         <v>0.1947368421052632</v>
@@ -29849,58 +29849,58 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.1670819590348475</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590472</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761332</v>
       </c>
       <c r="U10" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188533</v>
       </c>
       <c r="V10" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781378</v>
       </c>
       <c r="W10" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X10" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989976</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB10" t="n">
         <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE10" t="n">
         <v>0.06</v>
@@ -29921,91 +29921,91 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625588</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937955</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT10" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405263</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.12948076110904</v>
+        <v>0.8045570841917241</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337426</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855332</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782127</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>0.624208830961172</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.6379645732203236</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.622860317120011</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694134</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>9998624.357931826</v>
+        <v>9998622.412266586</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.249918721461187</v>
+        <v>0.4557797408183446</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.9999999000000001</v>
+        <v>4.000000000115023e-07</v>
       </c>
       <c r="BJ10" t="n">
-        <v>9999934.757089801</v>
+        <v>9999927.749163073</v>
       </c>
       <c r="BK10" t="n">
-        <v>9999665.494958648</v>
+        <v>9999665.281944949</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.04274810585106922</v>
+        <v>0.01725189414893076</v>
       </c>
       <c r="BM10" t="n">
-        <v>9999683.54375387</v>
+        <v>9999682.272236895</v>
       </c>
       <c r="BN10" t="n">
         <v>1.02627893093248</v>
@@ -30049,22 +30049,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>1.694063926940639</v>
+        <v>1.704109589041096</v>
       </c>
       <c r="D11" t="n">
         <v>0.273920501211362</v>
       </c>
       <c r="E11" t="n">
-        <v>7.244774180766248</v>
+        <v>7.228351461575118</v>
       </c>
       <c r="F11" t="n">
         <v>5.550494366651282</v>
       </c>
       <c r="G11" t="n">
-        <v>1.06071401756454</v>
+        <v>1.065293797845132</v>
       </c>
       <c r="H11" t="n">
         <v>0.1947368421052632</v>
@@ -30082,58 +30082,58 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006942473990117714</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4304072780572999</v>
+        <v>0.4732526583684921</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1830662485444979</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.1670819590348474</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3252092654096063</v>
+        <v>0.3259432518590471</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05437483399847826</v>
+        <v>0.03372223073761338</v>
       </c>
       <c r="U11" t="n">
-        <v>0.717848748942015</v>
+        <v>0.6473312562188532</v>
       </c>
       <c r="V11" t="n">
-        <v>0.809579436350922</v>
+        <v>0.8866918126781377</v>
       </c>
       <c r="W11" t="n">
-        <v>3.968336805303631</v>
+        <v>3.971228561530555</v>
       </c>
       <c r="X11" t="n">
-        <v>1.090193253937462</v>
+        <v>1.094103033989975</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.527428185292937</v>
+        <v>1.534023068896991</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.692369863013699</v>
+        <v>1.702405479452055</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.69575799086758</v>
+        <v>1.705813698630137</v>
       </c>
       <c r="AB11" t="n">
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.03780939120760705</v>
+        <v>0.03789529364578966</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2117579908675799</v>
+        <v>0.213013698630137</v>
       </c>
       <c r="AE11" t="n">
         <v>0.06</v>
@@ -30154,91 +30154,91 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.2276555926020851</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.290612853664234</v>
+        <v>0.7998507487625579</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-1.500994428246688</v>
+        <v>-1.323984624937954</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.793791780733581</v>
+        <v>7.133369331767142</v>
       </c>
       <c r="AT11" t="n">
-        <v>-2.040018251490068</v>
+        <v>-1.532811497405262</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.840596243701498</v>
+        <v>0.8045570841917233</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2198762415351569</v>
+        <v>0.1753473132337419</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.4483914397626573</v>
+        <v>0.4420736930855329</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.623431235661163</v>
+        <v>1.537156498782126</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>1.33371233095877</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>0.3791851960582449</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.363492996625877</v>
+        <v>1.891291079767913</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0008167413457121353</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.6006604811500733</v>
+        <v>0.4567227173694125</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>9998466.445388483</v>
+        <v>9998464.492948532</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.022032876712331</v>
+        <v>0.677078075306017</v>
       </c>
       <c r="BI11" t="n">
-        <v>4.000000000115023e-07</v>
+        <v>0.9999997</v>
       </c>
       <c r="BJ11" t="n">
-        <v>9999927.283441104</v>
+        <v>9999919.432964569</v>
       </c>
       <c r="BK11" t="n">
-        <v>9999627.694170188</v>
+        <v>9999627.481156489</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.03409725076695701</v>
+        <v>0.02590274923304302</v>
       </c>
       <c r="BM11" t="n">
-        <v>9999647.794451047</v>
+        <v>9999646.44985386</v>
       </c>
       <c r="BN11" t="n">
         <v>1.02627893093248</v>
